--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,29 +52,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>除Token接口以外的其他接口调用时都必须在Header中加入access_token参数，如下图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口基础出参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>错误编号，正确为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>errMsg</t>
-  </si>
-  <si>
     <t>错误描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordCount</t>
   </si>
   <si>
     <t>记录总条数(分页获取时返回)</t>
@@ -542,14 +529,26 @@
   </si>
   <si>
     <t>2018060316281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -754,60 +753,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1669</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>145754</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6127750" y="1285875"/>
-          <a:ext cx="11819019" cy="2441279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -850,7 +803,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -893,7 +846,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1202,24 +1155,24 @@
   <dimension ref="A3:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1238,12 +1191,12 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.95">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>4</v>
@@ -1257,16 +1210,14 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.95">
       <c r="A6" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>5</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -1276,12 +1227,12 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.95">
       <c r="A7" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -1293,168 +1244,168 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.95">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="B41" s="17"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1420,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1481,190 +1431,190 @@
       <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="11"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1689,220 +1639,220 @@
       <selection activeCell="A3" sqref="A3:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="15" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1927,206 +1877,206 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,10 @@
   </si>
   <si>
     <t>RecordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAreaList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1159,7 @@
   <dimension ref="A3:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -1191,9 +1195,9 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="15.95">
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -1210,7 +1214,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="15.95">
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
@@ -1227,7 +1231,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="15.95">
+    <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -1244,7 +1248,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="15.95">
+    <row r="8" spans="1:13">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
     </row>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="GetAreaList" sheetId="2" r:id="rId2"/>
     <sheet name="GetProjectsByArea" sheetId="3" r:id="rId3"/>
     <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId4"/>
+    <sheet name="GetHouseBuildings" sheetId="6" r:id="rId5"/>
+    <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,16 +54,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>除Token接口以外的其他接口调用时都必须在Header中加入access_token参数，如下图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>接口基础出参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>错误编号，正确为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>errMsg</t>
+  </si>
+  <si>
     <t>错误描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordCount</t>
   </si>
   <si>
     <t>记录总条数(分页获取时返回)</t>
@@ -532,23 +547,413 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ErrMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordCount</t>
+    <t>GetHouseBuildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取楼盘所有楼号列表</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lou pan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lou hao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetHouseBuildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstateId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼号</t>
+    <rPh sb="0" eb="1">
+      <t>lou hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHouseEstateDetails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某一栋楼内所有房间信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetHouseEstatsDetails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Houses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间信息列表</t>
+    <rPh sb="0" eb="1">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元</t>
+    <rPh sb="0" eb="1">
+      <t>dan yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-HouseDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间信息</t>
+    <rPh sb="0" eb="1">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--HouseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间号</t>
+    <rPh sb="0" eb="1">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--SerialNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="1">
+      <t>xu hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组别</t>
+    <rPh sb="0" eb="1">
+      <t>zu bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平区</t>
+    <rPh sb="0" eb="1">
+      <t>chang ping qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块</t>
+    <rPh sb="0" eb="1">
+      <t>di kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号地块</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元号</t>
+    <rPh sb="0" eb="1">
+      <t>dan yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--RoomNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房号</t>
+    <rPh sb="0" eb="1">
+      <t>fang hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--Toward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <rPh sb="0" eb="1">
+      <t>chao xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <rPh sb="0" eb="1">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--RoomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间类型</t>
+    <rPh sb="0" eb="1">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一居</t>
+    <rPh sb="0" eb="1">
+      <t>yi ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--EstimateBuiltUpArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测建筑面积</t>
+    <rPh sb="0" eb="1">
+      <t>yu ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian zhu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--EstimateLivingArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测套内面积</t>
+    <rPh sb="0" eb="1">
+      <t>yu ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tao nei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--AreaUnitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal（10，2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑单价</t>
+    <rPh sb="0" eb="1">
+      <t>jian zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--TotalPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <rPh sb="0" eb="1">
+      <t>zong jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--SubscriberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人id</t>
+    <rPh sb="0" eb="1">
+      <t>ren gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--SubscriberName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人姓名</t>
+    <rPh sb="0" eb="1">
+      <t>ren gou ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHouseBuildings</t>
+  </si>
+  <si>
+    <t>GetHouseEstateDetails</t>
+  </si>
+  <si>
+    <t>获取楼号列表</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lou hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某一栋楼房间明细</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mou yi dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming xi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -672,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -721,6 +1126,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -753,14 +1164,60 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1669</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6127750" y="1285875"/>
+          <a:ext cx="11819019" cy="2441279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -803,7 +1260,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -846,7 +1303,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -878,6 +1335,92 @@
         <a:xfrm>
           <a:off x="8521700" y="88900"/>
           <a:ext cx="8204200" cy="8763000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5803900" y="0"/>
+          <a:ext cx="12954000" cy="7645400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7327900" y="0"/>
+          <a:ext cx="8432800" cy="8775700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,257 +1698,267 @@
   <dimension ref="A3:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.95">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.95">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.95">
+        <v>46</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.95">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1420,6 +1973,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1431,190 +1985,190 @@
       <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="11"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1639,220 +2193,220 @@
       <selection activeCell="A3" sqref="A3:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="B19" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1874,209 +2428,209 @@
   <dimension ref="A4:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2091,4 +2645,650 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27">
+        <v>55.93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28">
+        <v>44.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30">
+        <v>1174530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId4"/>
     <sheet name="GetHouseBuildings" sheetId="6" r:id="rId5"/>
     <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId6"/>
+    <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId7"/>
+    <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="163">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,6 +947,181 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ming xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取楼盘房间的使用情况</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lou pan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qing kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRoomQuantityInfo</t>
+  </si>
+  <si>
+    <t>GetHouseSelectPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取项目时间表</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetHouseSelectPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t>时间表</t>
+    <rPh sb="0" eb="1">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-BeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <rPh sb="0" eb="1">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <rPh sb="0" eb="1">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组别名</t>
+    <rPh sb="0" eb="1">
+      <t>zu bie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一组</t>
+    <rPh sb="0" eb="1">
+      <t>di yi zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码</t>
+    <rPh sb="0" eb="1">
+      <t>hao ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5502-5601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总房间数</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已认购房间</t>
+    <rPh sb="0" eb="1">
+      <t>yi xuan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren gou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -953,7 +1130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -981,6 +1158,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF33A2BD"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -1077,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1129,6 +1318,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,6 +1346,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1188,7 +1383,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,6 +1616,92 @@
         <a:xfrm>
           <a:off x="7327900" y="0"/>
           <a:ext cx="8432800" cy="8775700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="546100"/>
+          <a:ext cx="12941300" cy="6210300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7251700" y="0"/>
+          <a:ext cx="13017500" cy="8712200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,10 +1991,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1722,17 +2003,17 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1741,17 +2022,17 @@
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1760,17 +2041,17 @@
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1779,15 +2060,15 @@
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1805,9 +2086,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
@@ -1894,10 +2179,10 @@
       <c r="B31" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1924,10 +2209,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -1996,43 +2281,43 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -2090,13 +2375,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -2206,43 +2491,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2300,13 +2585,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2444,43 +2729,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -2538,13 +2823,13 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2666,43 +2951,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -2770,13 +3055,13 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2862,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2877,43 +3162,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2991,13 +3276,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -3291,4 +3576,501 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="14">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="166">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1123,6 +1123,18 @@
     <rPh sb="3" eb="4">
       <t>fang jian</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,6 +1334,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,8 +1359,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1383,7 +1397,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,20 +1688,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1700,8 +1714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7251700" y="0"/>
-          <a:ext cx="13017500" cy="8712200"/>
+          <a:off x="6705600" y="342900"/>
+          <a:ext cx="13347700" cy="8661400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1991,10 +2005,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2003,17 +2017,17 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -2022,17 +2036,17 @@
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -2041,17 +2055,17 @@
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2060,15 +2074,15 @@
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -2179,10 +2193,10 @@
       <c r="B31" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="22"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -2209,10 +2223,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -2281,43 +2295,43 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -2375,13 +2389,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -2491,43 +2505,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2585,13 +2599,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2729,43 +2743,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -2823,13 +2837,13 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2951,43 +2965,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3055,13 +3069,13 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -3162,43 +3176,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3276,13 +3290,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -3582,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3596,43 +3610,43 @@
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -3700,13 +3714,13 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -3776,57 +3790,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -3841,7 +3856,7 @@
       <c r="D14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3858,7 +3873,7 @@
       <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="30">
         <v>2</v>
       </c>
     </row>
@@ -3867,30 +3882,30 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -3905,12 +3920,12 @@
       <c r="D20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3920,7 +3935,7 @@
       <c r="D21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -3933,8 +3948,8 @@
       <c r="D22" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="14">
-        <v>5.1100000000000003</v>
+      <c r="E22" s="30" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3942,13 +3957,13 @@
         <v>149</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="30">
-        <v>0.66666666666666663</v>
+      <c r="E23" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3956,13 +3971,13 @@
         <v>151</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="30">
-        <v>0.70833333333333337</v>
+      <c r="E24" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3975,7 +3990,7 @@
       <c r="D25" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3989,7 +4004,7 @@
       <c r="D26" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="11" t="s">
         <v>158</v>
       </c>
     </row>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId6"/>
     <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId7"/>
     <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId8"/>
+    <sheet name="PhoneCallLogin" sheetId="11" r:id="rId9"/>
+    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId10"/>
+    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="250">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,10 +884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--SubscriberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,6 +1134,550 @@
   </si>
   <si>
     <t>16:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有关联项目时：</t>
+    <rPh sb="0" eb="1">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关联项目时：</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneCallLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话app登陆接口</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng l</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/PhoneCallLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <rPh sb="0" eb="1">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <rPh sb="0" eb="1">
+      <t>mi ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcountProjectInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户项目信息</t>
+    <rPh sb="0" eb="1">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-AccountID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户id</t>
+    <rPh sb="0" eb="1">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <rPh sb="0" eb="1">
+      <t>zhang hu ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-ProjectList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目列表</t>
+    <rPh sb="0" eb="1">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--ProjectNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目号码</t>
+    <rPh sb="0" eb="1">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--ProjectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结束</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--IsEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--SubscriberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--IsSelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否选择</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束原因</t>
+    <rPh sb="0" eb="1">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售罄</t>
+    <rPh sb="0" eb="1">
+      <t>shou qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--EndReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPhoneCallProjectGroupList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话-获取项目分组</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetPhoneCallProjectGroupList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroupList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分组列表</t>
+    <rPh sb="0" eb="1">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组id</t>
+    <rPh sb="0" eb="1">
+      <t>fen zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名称</t>
+    <rPh sb="0" eb="1">
+      <t>fen zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-BeginNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始编号</t>
+    <rPh sb="0" eb="1">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-EndNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束编号</t>
+    <rPh sb="0" eb="1">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSubscriberDialingStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetSubscriberDialingStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话-获取分组电话拨打情况详情</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen zu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dian hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bo da qing kuang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始序号</t>
+    <rPh sb="0" eb="1">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束序号</t>
+    <rPh sb="0" eb="1">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undialed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未拨打列表</t>
+    <rPh sb="0" eb="1">
+      <t>wei bo da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <rPh sb="0" eb="1">
+      <t>xing ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notconected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未接通列表</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CallTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨打次数</t>
+    <rPh sb="0" eb="1">
+      <t>bo da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-LastCallTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后拨打时间</t>
+    <rPh sb="0" eb="1">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bo da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13812345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRoomQuantityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetRoomQuantityInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1185,8 +1728,35 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1196,6 +1766,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,13 +1854,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1338,6 +1921,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1359,13 +1973,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1397,7 +2009,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,6 +2027,130 @@
         <a:xfrm>
           <a:off x="6127750" y="1285875"/>
           <a:ext cx="11819019" cy="2441279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="203200"/>
+          <a:ext cx="13068300" cy="8432800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="152400"/>
+          <a:ext cx="13131800" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7289800" y="3136900"/>
+          <a:ext cx="13144500" cy="6756400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,20 +2338,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1628,8 +2364,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7327900" y="0"/>
-          <a:ext cx="8432800" cy="8775700"/>
+          <a:off x="7442200" y="203200"/>
+          <a:ext cx="13195300" cy="2108200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442200" y="2159000"/>
+          <a:ext cx="14020800" cy="4457700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1716,6 +2490,87 @@
         <a:xfrm>
           <a:off x="6705600" y="342900"/>
           <a:ext cx="13347700" cy="8661400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11061700" y="698500"/>
+          <a:ext cx="14198600" cy="6921500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11404600" y="7924800"/>
+          <a:ext cx="12979400" cy="7950200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2005,10 +2860,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2017,17 +2872,17 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -2036,17 +2891,17 @@
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -2055,17 +2910,17 @@
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2074,38 +2929,38 @@
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2193,10 +3048,10 @@
       <c r="B31" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="35"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -2223,10 +3078,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -2273,6 +3128,583 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="34">
+        <v>43269.508472222224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="15">
+        <v>13812345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2295,43 +3727,43 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -2389,13 +3821,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -2505,43 +3937,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2599,13 +4031,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2743,43 +4175,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -2837,13 +4269,13 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2965,43 +4397,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3069,13 +4501,13 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -3159,10 +4591,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E32"/>
+  <dimension ref="A3:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E32"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3176,43 +4608,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3290,13 +4722,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -3551,28 +4983,44 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="12" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="B32" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>134</v>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3596,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3610,43 +5058,43 @@
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -3714,13 +5162,13 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -3741,14 +5189,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="14">
         <v>330</v>
@@ -3756,14 +5204,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
@@ -3779,7 +5227,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseBuildings"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -3790,8 +5238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3805,43 +5253,43 @@
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -3873,7 +5321,7 @@
       <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="23">
         <v>2</v>
       </c>
     </row>
@@ -3882,30 +5330,30 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -3926,86 +5374,86 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="30"/>
+        <v>144</v>
+      </c>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>164</v>
+        <v>147</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4086,6 +5534,304 @@
     <hyperlink ref="B12" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L39" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="GetAreaList" sheetId="2" r:id="rId2"/>
-    <sheet name="GetProjectsByArea" sheetId="3" r:id="rId3"/>
-    <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId4"/>
-    <sheet name="GetHouseBuildings" sheetId="6" r:id="rId5"/>
-    <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId6"/>
-    <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId7"/>
-    <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId8"/>
-    <sheet name="PhoneCallLogin" sheetId="11" r:id="rId9"/>
-    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId10"/>
-    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId11"/>
+    <sheet name="GetToken" sheetId="14" r:id="rId2"/>
+    <sheet name="RefreshToken" sheetId="15" r:id="rId3"/>
+    <sheet name="GetAreaList" sheetId="2" r:id="rId4"/>
+    <sheet name="GetProjectsByArea" sheetId="3" r:id="rId5"/>
+    <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId6"/>
+    <sheet name="GetHouseBuildings" sheetId="6" r:id="rId7"/>
+    <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId8"/>
+    <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId9"/>
+    <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId10"/>
+    <sheet name="PhoneCallLogin" sheetId="11" r:id="rId11"/>
+    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId12"/>
+    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="282">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1678,14 +1680,136 @@
   </si>
   <si>
     <t>http://xxx.xx.xx/api/GetRoomQuantityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPID</t>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPSECRET</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0B2223C37F54864403847E762E1F87F3</t>
+  </si>
+  <si>
+    <t>接口业务出参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access_Token</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b0</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh_Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新账号Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/RefreshToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshToken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1861,7 +1985,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1949,6 +2073,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,6 +2100,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1984,6 +2114,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2009,7 +2142,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,6 +2172,130 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="342900"/>
+          <a:ext cx="13347700" cy="8661400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11061700" y="698500"/>
+          <a:ext cx="14198600" cy="6921500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11404600" y="7924800"/>
+          <a:ext cx="12979400" cy="7950200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2081,7 +2338,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2167,6 +2424,92 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>46632</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="123825"/>
+          <a:ext cx="7942857" cy="5057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>170356</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="76200"/>
+          <a:ext cx="8752381" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2205,7 +2548,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2248,7 +2591,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2291,7 +2634,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2334,7 +2677,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2415,7 +2758,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2447,130 +2790,6 @@
         <a:xfrm>
           <a:off x="5829300" y="546100"/>
           <a:ext cx="12941300" cy="6210300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="342900"/>
-          <a:ext cx="13347700" cy="8661400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11061700" y="698500"/>
-          <a:ext cx="14198600" cy="6921500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11404600" y="7924800"/>
-          <a:ext cx="12979400" cy="7950200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2851,95 +3070,95 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.95">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.95">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.95">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.95">
       <c r="A8" s="8" t="s">
         <v>134</v>
       </c>
@@ -2947,7 +3166,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -2955,7 +3174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="19" t="s">
         <v>139</v>
       </c>
@@ -2963,97 +3182,97 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="35"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3061,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3069,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3077,13 +3296,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="35"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3091,7 +3310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
@@ -3099,7 +3318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
@@ -3107,7 +3326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
@@ -3133,233 +3352,588 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E23"/>
+  <dimension ref="A10:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
+      <c r="L3" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="B6" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="21" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="D23" s="12"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12">
+      <c r="L39" s="25" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3378,7 +3952,254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E26"/>
   <sheetViews>
@@ -3386,57 +4207,57 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -3453,7 +4274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>204</v>
       </c>
@@ -3470,7 +4291,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>221</v>
       </c>
@@ -3487,7 +4308,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>224</v>
       </c>
@@ -3504,7 +4325,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>227</v>
       </c>
@@ -3521,16 +4342,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -3547,7 +4368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
         <v>230</v>
       </c>
@@ -3560,7 +4381,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>233</v>
       </c>
@@ -3575,7 +4396,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="18" t="s">
         <v>234</v>
       </c>
@@ -3589,7 +4410,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>237</v>
       </c>
@@ -3603,14 +4424,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="30"/>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -3621,7 +4442,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>233</v>
       </c>
@@ -3635,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>234</v>
       </c>
@@ -3649,7 +4470,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>241</v>
       </c>
@@ -3663,7 +4484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>243</v>
       </c>
@@ -3677,7 +4498,7 @@
         <v>43269.508472222224</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="11" t="s">
         <v>237</v>
       </c>
@@ -3710,62 +4531,433 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="91.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="35">
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="35">
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="11"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -3782,7 +4974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -3799,37 +4991,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -3846,7 +5038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -3859,7 +5051,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -3874,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -3888,7 +5080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -3916,66 +5108,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -3992,7 +5184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -4009,37 +5201,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4056,7 +5248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -4069,7 +5261,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -4084,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -4098,7 +5290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -4112,7 +5304,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -4126,7 +5318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -4154,7 +5346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E19"/>
   <sheetViews>
@@ -4162,58 +5354,58 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4230,7 +5422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -4247,37 +5439,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -4294,7 +5486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -4307,7 +5499,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -4322,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -4336,7 +5528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -4350,7 +5542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -4378,7 +5570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E21"/>
   <sheetViews>
@@ -4386,56 +5578,56 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -4452,7 +5644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -4469,7 +5661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
@@ -4486,30 +5678,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4526,7 +5718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -4541,32 +5733,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -4589,7 +5781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
@@ -4597,56 +5789,56 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +5855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -4680,7 +5872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -4697,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -4714,23 +5906,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4747,7 +5939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
@@ -4760,7 +5952,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
@@ -4775,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="18" t="s">
         <v>97</v>
       </c>
@@ -4789,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>98</v>
       </c>
@@ -4800,7 +5992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>100</v>
       </c>
@@ -4814,7 +6006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -4828,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -4842,7 +6034,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
@@ -4856,7 +6048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -4870,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>111</v>
       </c>
@@ -4884,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
@@ -4898,7 +6090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>115</v>
       </c>
@@ -4912,7 +6104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
@@ -4926,7 +6118,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="11" t="s">
         <v>121</v>
       </c>
@@ -4940,7 +6132,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="11" t="s">
         <v>123</v>
       </c>
@@ -4954,7 +6146,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
@@ -4968,7 +6160,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
         <v>128</v>
       </c>
@@ -4982,7 +6174,7 @@
         <v>1174530</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="26" t="s">
         <v>194</v>
       </c>
@@ -4996,7 +6188,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
         <v>132</v>
       </c>
@@ -5009,7 +6201,7 @@
       </c>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
         <v>195</v>
       </c>
@@ -5040,63 +6232,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="1" max="3" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -5113,7 +6305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -5130,7 +6322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -5147,30 +6339,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -5187,7 +6379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>158</v>
       </c>
@@ -5202,7 +6394,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>160</v>
       </c>
@@ -5232,606 +6424,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:E39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="D39" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:E19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L3" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L39" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,24 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="GetToken" sheetId="14" r:id="rId2"/>
-    <sheet name="RefreshToken" sheetId="15" r:id="rId3"/>
-    <sheet name="GetAreaList" sheetId="2" r:id="rId4"/>
-    <sheet name="GetProjectsByArea" sheetId="3" r:id="rId5"/>
-    <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId6"/>
-    <sheet name="GetHouseBuildings" sheetId="6" r:id="rId7"/>
-    <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId8"/>
-    <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId9"/>
-    <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId10"/>
-    <sheet name="PhoneCallLogin" sheetId="11" r:id="rId11"/>
-    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId12"/>
-    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId13"/>
+    <sheet name="RefreshToken" sheetId="15" r:id="rId2"/>
+    <sheet name="GetAreaList" sheetId="2" r:id="rId3"/>
+    <sheet name="GetProjectsByArea" sheetId="3" r:id="rId4"/>
+    <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId5"/>
+    <sheet name="GetHouseBuildings" sheetId="6" r:id="rId6"/>
+    <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId7"/>
+    <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId8"/>
+    <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId9"/>
+    <sheet name="PhoneCallLogin" sheetId="11" r:id="rId10"/>
+    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId11"/>
+    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="279">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1171,10 +1170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PhoneCallLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话app登陆接口</t>
     <rPh sb="0" eb="1">
       <t>dian hua</t>
@@ -1192,10 +1187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LoginAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账户名</t>
     <rPh sb="0" eb="1">
       <t>zhang hu</t>
@@ -1210,10 +1201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LoginPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码</t>
     <rPh sb="0" eb="1">
       <t>mi ma</t>
@@ -1222,10 +1209,6 @@
   </si>
   <si>
     <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcountProjectInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1687,10 +1670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取应用Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1711,97 +1690,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APPID</t>
-  </si>
-  <si>
-    <t>应用ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPSECRET</t>
+    <t>接口业务出参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access_Token</t>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用密钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0B2223C37F54864403847E762E1F87F3</t>
-  </si>
-  <si>
-    <t>接口业务出参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Access_Token</t>
+    <t>应用Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b0</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh_Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新账号Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/RefreshToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneCallLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Access_Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Refresh_Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Expiry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcountProjectInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b0</t>
-  </si>
-  <si>
-    <t>Expiry</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xxx.xxx.xxx.xxx/api/GetToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refresh_Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新账号Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xxx.xxx.xxx.xxx/api/RefreshToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshToken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1985,7 +1975,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2079,6 +2069,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2100,8 +2099,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2175,87 +2179,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="342900"/>
-          <a:ext cx="13347700" cy="8661400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11061700" y="698500"/>
-          <a:ext cx="14198600" cy="6921500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -2275,7 +2198,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2292,10 +2215,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>256027</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="666750"/>
+          <a:ext cx="9180952" cy="6304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2338,7 +2299,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2426,49 +2387,6 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>46632</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="123825"/>
-          <a:ext cx="7942857" cy="5057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -2505,7 +2423,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2548,7 +2466,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2591,7 +2509,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2634,7 +2552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2677,7 +2595,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2758,7 +2676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2790,6 +2708,49 @@
         <a:xfrm>
           <a:off x="5829300" y="546100"/>
           <a:ext cx="12941300" cy="6210300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="342900"/>
+          <a:ext cx="13347700" cy="8661400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3079,10 +3040,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
@@ -3091,74 +3052,74 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.95">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.95">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.95">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.95">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
         <v>134</v>
       </c>
@@ -3267,10 +3228,10 @@
       <c r="B31" s="7"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="39"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
@@ -3297,10 +3258,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4">
@@ -3352,315 +3313,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:E39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="D39" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:E19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3668,6 +3324,7 @@
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="91.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3680,43 +3337,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
@@ -3737,7 +3394,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>26</v>
@@ -3746,15 +3403,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
@@ -3763,10 +3420,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3784,25 +3441,25 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -3810,130 +3467,440 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="21" t="s">
-        <v>176</v>
+      <c r="A15" s="49" t="s">
+        <v>276</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="B18" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="48"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" t="s">
-        <v>199</v>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="37">
+        <v>3600</v>
       </c>
     </row>
     <row r="39" spans="12:12">
       <c r="L39" s="25" t="s">
         <v>166</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3954,253 +3921,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4219,43 +3939,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
@@ -4276,7 +3996,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4288,68 +4008,68 @@
         <v>56</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
@@ -4370,20 +4090,20 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
@@ -4393,35 +4113,35 @@
         <v>103</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4433,21 +4153,21 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>103</v>
@@ -4458,27 +4178,27 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E24" s="15">
         <v>3</v>
@@ -4486,13 +4206,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E25" s="34">
         <v>43269.508472222224</v>
@@ -4500,13 +4220,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E26" s="15">
         <v>13812345678</v>
@@ -4531,203 +4251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="91.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="35">
-        <v>3600</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4742,142 +4269,142 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+        <v>246</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>256</v>
+      <c r="A5" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E11" s="35">
         <v>3600</v>
@@ -4900,12 +4427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4919,43 +4446,43 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
@@ -5013,13 +4540,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
@@ -5108,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
@@ -5129,43 +4656,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
@@ -5223,13 +4750,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
@@ -5346,7 +4873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E19"/>
   <sheetViews>
@@ -5367,43 +4894,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
@@ -5461,13 +4988,13 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
@@ -5570,7 +5097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E21"/>
   <sheetViews>
@@ -5589,43 +5116,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
@@ -5693,13 +5220,13 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
@@ -5781,7 +5308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
@@ -5800,43 +5327,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
@@ -5914,13 +5441,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
@@ -6176,7 +5703,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>36</v>
@@ -6203,13 +5730,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -6232,7 +5759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E18"/>
   <sheetViews>
@@ -6250,43 +5777,43 @@
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
@@ -6354,13 +5881,13 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
@@ -6424,4 +5951,309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="RefreshToken" sheetId="15" r:id="rId2"/>
-    <sheet name="GetAreaList" sheetId="2" r:id="rId3"/>
-    <sheet name="GetProjectsByArea" sheetId="3" r:id="rId4"/>
-    <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId5"/>
-    <sheet name="GetHouseBuildings" sheetId="6" r:id="rId6"/>
-    <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId7"/>
-    <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId8"/>
-    <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId9"/>
-    <sheet name="PhoneCallLogin" sheetId="11" r:id="rId10"/>
-    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId11"/>
-    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId12"/>
+    <sheet name="GetAreaList" sheetId="2" r:id="rId2"/>
+    <sheet name="GetProjectsByArea" sheetId="3" r:id="rId3"/>
+    <sheet name="GetHouseEstatesByProject" sheetId="4" r:id="rId4"/>
+    <sheet name="GetHouseBuildings" sheetId="6" r:id="rId5"/>
+    <sheet name="GetHouseEstateDetails" sheetId="5" r:id="rId6"/>
+    <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId7"/>
+    <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId8"/>
+    <sheet name="PhoneCallLogin" sheetId="11" r:id="rId9"/>
+    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId10"/>
+    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="257">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,6 +1169,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PhoneCallLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电话app登陆接口</t>
     <rPh sb="0" eb="1">
       <t>dian hua</t>
@@ -1187,6 +1190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LoginAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>账户名</t>
     <rPh sb="0" eb="1">
       <t>zhang hu</t>
@@ -1201,6 +1208,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LoginPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>密码</t>
     <rPh sb="0" eb="1">
       <t>mi ma</t>
@@ -1209,6 +1220,10 @@
   </si>
   <si>
     <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcountProjectInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1508,46 +1523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeginNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始序号</t>
-    <rPh sb="0" eb="1">
-      <t>kai shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束序号</t>
-    <rPh sb="0" eb="1">
-      <t>jie shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undialed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1595,211 +1570,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Notconected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未接通列表</t>
+    <t>-CallTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨打次数</t>
+    <rPh sb="0" eb="1">
+      <t>bo da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-LastCallTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后拨打时间</t>
+    <rPh sb="0" eb="1">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bo da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13812345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRoomQuantityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetRoomQuantityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumberRegions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号范围列表</t>
+    <rPh sb="0" eb="1">
+      <t>xu hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5502-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5512，5532-5543</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialedInfoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <rPh sb="0" eb="1">
+      <t>shen fen zhwng hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IdentityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsUndialed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未拨打</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bo da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsNotConnected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未接通</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
     </rPh>
     <rPh sb="1" eb="2">
       <t>jie tong</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NotConnectedReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未接通原因</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie tong</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>lie biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-CallTimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨打次数</t>
-    <rPh sb="0" eb="1">
-      <t>bo da</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ci shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-LastCallTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后拨打时间</t>
-    <rPh sb="0" eb="1">
-      <t>zui hou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bo da</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <rPh sb="0" eb="1">
-      <t>dian hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13812345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetRoomQuantityInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xxx.xx.xx/api/GetRoomQuantityInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口业务出参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Access_Token</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b0</t>
-  </si>
-  <si>
-    <t>Expiry</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refresh_Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新账号Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xxx.xxx.xxx.xxx/api/RefreshToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhoneCallLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-Access_Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-Refresh_Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-Expiry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcountProjectInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58bbeed0ac6847638177f9d88398789b636624250897878976f97816e4d9a84e13a7d215f3932a72b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+      <t>yuan yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占线</t>
+    <rPh sb="0" eb="1">
+      <t>zhan xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timespan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-EndTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1869,8 +1809,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,12 +1835,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,7 +1918,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2049,31 +1992,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2099,13 +2022,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2118,9 +2037,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2146,7 +2062,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,87 +2092,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11404600" y="7924800"/>
-          <a:ext cx="12979400" cy="7950200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>256027</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>170662</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8115300" y="666750"/>
-          <a:ext cx="9180952" cy="6304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2299,24 +2134,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2329,46 +2164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7264400" y="152400"/>
-          <a:ext cx="13131800" cy="2971800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7289800" y="3136900"/>
-          <a:ext cx="13144500" cy="6756400"/>
+          <a:off x="7632700" y="0"/>
+          <a:ext cx="12877800" cy="8369300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2381,49 +2178,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>170356</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>113645</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10658475" y="76200"/>
-          <a:ext cx="8752381" cy="5238095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2466,7 +2220,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2509,7 +2263,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2552,7 +2306,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2595,7 +2349,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2676,7 +2430,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2719,7 +2473,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2751,6 +2505,87 @@
         <a:xfrm>
           <a:off x="6705600" y="342900"/>
           <a:ext cx="13347700" cy="8661400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11061700" y="698500"/>
+          <a:ext cx="14198600" cy="6921500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11404600" y="7924800"/>
+          <a:ext cx="12979400" cy="7950200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3031,95 +2866,95 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>134</v>
       </c>
@@ -3127,7 +2962,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -3135,7 +2970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>139</v>
       </c>
@@ -3143,97 +2978,97 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="39"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="31"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3241,7 +3076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3249,7 +3084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3257,13 +3092,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="39"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="31"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3271,7 +3106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
@@ -3279,7 +3114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
@@ -3287,7 +3122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
@@ -3313,591 +3148,230 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L39"/>
+  <dimension ref="A4:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="91.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
-      <c r="L3" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="B4" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="B5" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="43" t="s">
+      <c r="B6" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="49" t="s">
-        <v>276</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="49"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E27" s="37">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12">
-      <c r="L39" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
@@ -3919,65 +3393,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E26"/>
+  <dimension ref="A5:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="B7" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -3990,13 +3464,13 @@
       <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4008,70 +3482,60 @@
         <v>56</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4084,26 +3548,26 @@
       <c r="D15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>226</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>244</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
@@ -4113,123 +3577,147 @@
         <v>103</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="B25" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="34">
+      <c r="E25" s="30">
         <v>43269.508472222224</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="15">
-        <v>13812345678</v>
+        <v>149</v>
+      </c>
+      <c r="E26" s="40">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="40">
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -4251,240 +3739,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="35">
-        <v>3600</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="11"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="43" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -4501,7 +3811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -4518,37 +3828,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -4565,7 +3875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -4578,7 +3888,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -4593,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -4607,7 +3917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -4635,66 +3945,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A3" sqref="A3:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="43" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -4711,7 +4021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -4728,37 +4038,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4775,7 +4085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -4788,7 +4098,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -4803,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -4817,7 +4127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -4831,7 +4141,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -4845,7 +4155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -4873,7 +4183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E19"/>
   <sheetViews>
@@ -4881,58 +4191,58 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4949,7 +4259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -4966,37 +4276,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -5013,7 +4323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -5026,7 +4336,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -5041,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -5055,7 +4365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -5069,7 +4379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -5097,7 +4407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E21"/>
   <sheetViews>
@@ -5105,56 +4415,56 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -5171,7 +4481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -5188,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
@@ -5205,30 +4515,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -5245,7 +4555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -5260,32 +4570,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -5308,7 +4618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
@@ -5316,56 +4626,56 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="43" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5382,7 +4692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -5399,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -5416,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -5433,23 +4743,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -5466,7 +4776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
@@ -5479,7 +4789,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
@@ -5494,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>97</v>
       </c>
@@ -5508,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>98</v>
       </c>
@@ -5519,7 +4829,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>100</v>
       </c>
@@ -5533,7 +4843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -5547,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -5561,7 +4871,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
@@ -5575,7 +4885,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -5589,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>111</v>
       </c>
@@ -5603,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
@@ -5617,7 +4927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>115</v>
       </c>
@@ -5631,7 +4941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
@@ -5645,7 +4955,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>121</v>
       </c>
@@ -5659,7 +4969,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>123</v>
       </c>
@@ -5673,7 +4983,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
@@ -5687,7 +4997,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>128</v>
       </c>
@@ -5701,9 +5011,9 @@
         <v>1174530</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>36</v>
@@ -5715,7 +5025,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>132</v>
       </c>
@@ -5728,15 +5038,15 @@
       </c>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -5759,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E18"/>
   <sheetViews>
@@ -5767,55 +5077,55 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="1" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="43" t="s">
+      <c r="B8" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -5832,7 +5142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -5849,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -5866,30 +5176,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -5906,7 +5216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>158</v>
       </c>
@@ -5921,7 +5231,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>160</v>
       </c>
@@ -5953,7 +5263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:E39"/>
   <sheetViews>
@@ -5961,56 +5271,56 @@
       <selection activeCell="A10" sqref="A10:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="43" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -6027,7 +5337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -6044,37 +5354,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -6091,7 +5401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>143</v>
       </c>
@@ -6104,7 +5414,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>145</v>
       </c>
@@ -6119,7 +5429,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -6133,7 +5443,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>150</v>
       </c>
@@ -6147,7 +5457,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>152</v>
       </c>
@@ -6161,7 +5471,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>155</v>
       </c>
@@ -6175,67 +5485,67 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
@@ -6256,4 +5566,301 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L39" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moore\Source\Repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,8 @@
     <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId10"/>
     <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="278">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1675,10 +1672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-IsUndialed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未拨打</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1689,10 +1682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-IsNotConnected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未接通</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1703,10 +1692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-NotConnectedReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未接通原因</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1733,13 +1718,107 @@
   <si>
     <t>-EndTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsContacted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsCallBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsMessageSend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-ResultType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否联系成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否回拨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在服务区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsUndialed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsNotConnected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NotConnectedReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-DevelopCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IdentityNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-IsEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-EndReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发企业</t>
+  </si>
+  <si>
+    <t>预售证号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1918,7 +1997,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1998,6 +2077,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,9 +2105,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2037,6 +2119,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2062,7 +2147,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,20 +2223,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380031</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>103853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2164,8 +2249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7632700" y="0"/>
-          <a:ext cx="12877800" cy="8369300"/>
+          <a:off x="7772400" y="161925"/>
+          <a:ext cx="7752381" cy="7371428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,6 +2337,44 @@
         <a:xfrm>
           <a:off x="7099300" y="342900"/>
           <a:ext cx="7924800" cy="7404100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>94048</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="4181475"/>
+          <a:ext cx="9619048" cy="4019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2866,95 +2989,95 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="33"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="8" t="s">
         <v>134</v>
       </c>
@@ -2962,7 +3085,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -2970,7 +3093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="19" t="s">
         <v>139</v>
       </c>
@@ -2978,97 +3101,97 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="31"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="33"/>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3076,7 +3199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3084,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3092,13 +3215,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="31"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="33"/>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3106,7 +3229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
@@ -3114,7 +3237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
@@ -3122,7 +3245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
@@ -3154,57 +3277,57 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -3221,7 +3344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>204</v>
       </c>
@@ -3238,37 +3361,37 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -3285,7 +3408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="21" t="s">
         <v>206</v>
       </c>
@@ -3298,7 +3421,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>208</v>
       </c>
@@ -3313,7 +3436,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
         <v>210</v>
       </c>
@@ -3327,7 +3450,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>212</v>
       </c>
@@ -3341,7 +3464,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>215</v>
       </c>
@@ -3355,23 +3478,23 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
@@ -3395,63 +3518,63 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E27"/>
+  <dimension ref="A5:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="27" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -3468,7 +3591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>204</v>
       </c>
@@ -3485,7 +3608,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>221</v>
       </c>
@@ -3502,7 +3625,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>240</v>
       </c>
@@ -3519,23 +3642,23 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -3552,8 +3675,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3565,7 +3688,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>226</v>
       </c>
@@ -3580,7 +3703,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="18" t="s">
         <v>227</v>
       </c>
@@ -3594,7 +3717,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>230</v>
       </c>
@@ -3608,7 +3731,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>247</v>
       </c>
@@ -3622,102 +3745,158 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="15" t="b">
+      <c r="E22" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="E26" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="30">
+        <v>43269.508472222224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="D29" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="30">
-        <v>43269.508472222224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="B30" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E30" s="32">
         <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3733,7 +3912,8 @@
     <hyperlink ref="B7" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3745,56 +3925,56 @@
       <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="11"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -3811,7 +3991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -3828,37 +4008,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -3875,7 +4055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -3888,7 +4068,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -3903,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -3917,7 +4097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -3947,64 +4127,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E19"/>
+  <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -4021,7 +4201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -4038,37 +4218,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4085,7 +4265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -4098,7 +4278,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -4113,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -4127,7 +4307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -4141,7 +4321,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -4155,7 +4335,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -4167,6 +4347,50 @@
       </c>
       <c r="E19" s="15" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4191,58 +4415,58 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4259,7 +4483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -4276,37 +4500,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -4323,7 +4547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -4336,7 +4560,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -4351,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -4365,7 +4589,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -4379,7 +4603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -4415,56 +4639,56 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -4481,7 +4705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -4498,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
@@ -4515,30 +4739,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -4570,32 +4794,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -4623,59 +4847,59 @@
   <dimension ref="A3:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -4692,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -4709,7 +4933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -4726,7 +4950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -4743,23 +4967,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4776,7 +5000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
@@ -4789,7 +5013,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
@@ -4804,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="18" t="s">
         <v>97</v>
       </c>
@@ -4818,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>98</v>
       </c>
@@ -4829,7 +5053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>100</v>
       </c>
@@ -4843,7 +5067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -4857,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -4871,7 +5095,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
@@ -4885,7 +5109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -4899,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>111</v>
       </c>
@@ -4913,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
@@ -4927,7 +5151,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>115</v>
       </c>
@@ -4941,7 +5165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
@@ -4955,7 +5179,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="11" t="s">
         <v>121</v>
       </c>
@@ -4969,7 +5193,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="11" t="s">
         <v>123</v>
       </c>
@@ -4983,7 +5207,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
@@ -4997,7 +5221,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
         <v>128</v>
       </c>
@@ -5011,7 +5235,7 @@
         <v>1174530</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="26" t="s">
         <v>194</v>
       </c>
@@ -5025,7 +5249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
         <v>132</v>
       </c>
@@ -5038,7 +5262,7 @@
       </c>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
         <v>195</v>
       </c>
@@ -5077,55 +5301,55 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="1" max="3" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -5142,7 +5366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -5159,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -5176,30 +5400,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -5216,7 +5440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>158</v>
       </c>
@@ -5231,7 +5455,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>160</v>
       </c>
@@ -5271,56 +5495,56 @@
       <selection activeCell="A10" sqref="A10:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -5337,7 +5561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -5354,37 +5578,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -5401,7 +5625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="21" t="s">
         <v>143</v>
       </c>
@@ -5414,7 +5638,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
         <v>145</v>
       </c>
@@ -5429,7 +5653,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -5443,7 +5667,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>150</v>
       </c>
@@ -5457,7 +5681,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>152</v>
       </c>
@@ -5471,7 +5695,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="11" t="s">
         <v>155</v>
       </c>
@@ -5485,67 +5709,67 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
@@ -5576,62 +5800,62 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="L3" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5648,7 +5872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
         <v>170</v>
       </c>
@@ -5665,7 +5889,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
         <v>173</v>
       </c>
@@ -5682,30 +5906,30 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -5722,7 +5946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="21" t="s">
         <v>176</v>
       </c>
@@ -5735,7 +5959,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="10" t="s">
         <v>178</v>
       </c>
@@ -5750,7 +5974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
         <v>181</v>
       </c>
@@ -5764,7 +5988,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>183</v>
       </c>
@@ -5776,7 +6000,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>186</v>
       </c>
@@ -5790,7 +6014,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>187</v>
       </c>
@@ -5804,7 +6028,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>190</v>
       </c>
@@ -5815,7 +6039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>193</v>
       </c>
@@ -5829,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>200</v>
       </c>
@@ -5843,7 +6067,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12">
       <c r="L39" s="25" t="s">
         <v>166</v>
       </c>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moore\Source\Repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,14 @@
     <sheet name="PhoneCallLogin" sheetId="11" r:id="rId9"/>
     <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId10"/>
     <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId11"/>
+    <sheet name="SaveNotifyRecords" sheetId="14" r:id="rId12"/>
+    <sheet name="MarkPhoneCallStatus" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="282">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,6 +1677,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-IsUndialed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未拨打</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1682,6 +1691,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-IsNotConnected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未接通</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1692,6 +1705,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-NotConnectedReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未接通原因</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1720,19 +1737,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-IsContacted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-IsCallBack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-IsMessageSend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-ResultType</t>
+    <t>SaveNotifyRecords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话-保存通知记录</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao cun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/SaveNotifyRecords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontAccountId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆账号id</t>
+    <rPh sb="0" eb="1">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知者手机号</t>
+    <rPh sb="0" eb="1">
+      <t>tong zhi zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou ji hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18550036600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakeNumberResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号结果id</t>
+    <rPh sb="0" eb="1">
+      <t>yao hao jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果类型</t>
+    <rPh sb="0" eb="1">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarkPhoneCallStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/MarkPhoneCallStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号记录id</t>
+    <rPh sb="0" eb="1">
+      <t>yao hao ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSendMessage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1740,85 +1853,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否联系成功</t>
+    <t>是否发送短信</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duan xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCallBack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否回拨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发送短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原因类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不在服务区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-IsUndialed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-IsNotConnected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-NotConnectedReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-DevelopCompany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-IdentityNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-IsEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-EndReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发企业</t>
-  </si>
-  <si>
-    <t>预售证号</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2084,6 +2158,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2105,9 +2182,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2119,9 +2193,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2147,7 +2218,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,20 +2294,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>380031</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>103853</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2249,8 +2320,132 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="161925"/>
-          <a:ext cx="7752381" cy="7371428"/>
+          <a:off x="7632700" y="0"/>
+          <a:ext cx="12877800" cy="8369300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7302500" y="76200"/>
+          <a:ext cx="12928600" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242300" y="6692900"/>
+          <a:ext cx="12230100" cy="2806700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="698500"/>
+          <a:ext cx="12928600" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,44 +2532,6 @@
         <a:xfrm>
           <a:off x="7099300" y="342900"/>
           <a:ext cx="7924800" cy="7404100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>94048</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>56648</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9725025" y="4181475"/>
-          <a:ext cx="9619048" cy="4019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2989,95 +3146,95 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>134</v>
       </c>
@@ -3085,7 +3242,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -3093,7 +3250,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>139</v>
       </c>
@@ -3101,97 +3258,97 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="33"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="34"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3199,7 +3356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3207,7 +3364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3215,13 +3372,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="33" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="33"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="34"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3229,7 +3386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
@@ -3237,7 +3394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
@@ -3245,7 +3402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
@@ -3277,57 +3434,57 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="37" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -3344,7 +3501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>204</v>
       </c>
@@ -3361,37 +3518,37 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -3408,7 +3565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>206</v>
       </c>
@@ -3421,7 +3578,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>208</v>
       </c>
@@ -3436,7 +3593,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>210</v>
       </c>
@@ -3450,7 +3607,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>212</v>
       </c>
@@ -3464,7 +3621,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>215</v>
       </c>
@@ -3478,23 +3635,23 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
@@ -3518,63 +3675,63 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E31"/>
+  <dimension ref="A5:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+      <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="27" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="37" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -3591,7 +3748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>204</v>
       </c>
@@ -3608,7 +3765,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>221</v>
       </c>
@@ -3625,7 +3782,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>240</v>
       </c>
@@ -3642,23 +3799,23 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -3675,7 +3832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>244</v>
       </c>
@@ -3688,7 +3845,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>226</v>
       </c>
@@ -3703,7 +3860,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>227</v>
       </c>
@@ -3717,7 +3874,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>230</v>
       </c>
@@ -3731,7 +3888,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>247</v>
       </c>
@@ -3745,158 +3902,102 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="26" t="b">
+      <c r="B21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="26" t="b">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="15" t="b">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="30">
+        <v>43269.508472222224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
+      <c r="D26" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
-        <v>232</v>
-      </c>
       <c r="B27" s="12" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="30">
-        <v>43269.508472222224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="32">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E27" s="32">
         <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3912,8 +4013,394 @@
     <hyperlink ref="B7" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3925,56 +4412,56 @@
       <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="11"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -3991,7 +4478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -4008,37 +4495,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -4055,7 +4542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -4068,7 +4555,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -4083,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -4097,7 +4584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -4127,64 +4614,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -4201,7 +4688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -4218,37 +4705,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4265,7 +4752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -4278,7 +4765,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -4293,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -4307,7 +4794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -4321,7 +4808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -4335,7 +4822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -4347,50 +4834,6 @@
       </c>
       <c r="E19" s="15" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4415,58 +4858,58 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="37" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4483,7 +4926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -4500,37 +4943,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -4547,7 +4990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -4560,7 +5003,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -4575,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -4589,7 +5032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -4603,7 +5046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -4639,56 +5082,56 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="37" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -4705,7 +5148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -4722,7 +5165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
@@ -4739,30 +5182,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4779,7 +5222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -4794,32 +5237,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -4847,59 +5290,59 @@
   <dimension ref="A3:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -4916,7 +5359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -4933,7 +5376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -4950,7 +5393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -4967,23 +5410,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -5000,7 +5443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
@@ -5013,7 +5456,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
@@ -5028,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>97</v>
       </c>
@@ -5042,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>98</v>
       </c>
@@ -5053,7 +5496,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>100</v>
       </c>
@@ -5067,7 +5510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -5081,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -5095,7 +5538,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
@@ -5109,7 +5552,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -5123,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>111</v>
       </c>
@@ -5137,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
@@ -5151,7 +5594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>115</v>
       </c>
@@ -5165,7 +5608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
@@ -5179,7 +5622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>121</v>
       </c>
@@ -5193,7 +5636,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>123</v>
       </c>
@@ -5207,7 +5650,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
@@ -5221,7 +5664,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>128</v>
       </c>
@@ -5235,7 +5678,7 @@
         <v>1174530</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>194</v>
       </c>
@@ -5249,7 +5692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>132</v>
       </c>
@@ -5262,7 +5705,7 @@
       </c>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>195</v>
       </c>
@@ -5301,55 +5744,55 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="1" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="37" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -5366,7 +5809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -5383,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -5400,30 +5843,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -5440,7 +5883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>158</v>
       </c>
@@ -5455,7 +5898,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>160</v>
       </c>
@@ -5495,56 +5938,56 @@
       <selection activeCell="A10" sqref="A10:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="37" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -5561,7 +6004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -5578,37 +6021,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -5625,7 +6068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>143</v>
       </c>
@@ -5638,7 +6081,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>145</v>
       </c>
@@ -5653,7 +6096,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -5667,7 +6110,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>150</v>
       </c>
@@ -5681,7 +6124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>152</v>
       </c>
@@ -5695,7 +6138,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>155</v>
       </c>
@@ -5709,67 +6152,67 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
@@ -5800,62 +6243,62 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L3" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="37" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5872,7 +6315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>170</v>
       </c>
@@ -5889,7 +6332,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>173</v>
       </c>
@@ -5906,30 +6349,30 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -5946,7 +6389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>176</v>
       </c>
@@ -5959,7 +6402,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>178</v>
       </c>
@@ -5974,7 +6417,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>181</v>
       </c>
@@ -5988,7 +6431,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>183</v>
       </c>
@@ -6000,7 +6443,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>186</v>
       </c>
@@ -6014,7 +6457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>187</v>
       </c>
@@ -6028,7 +6471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>190</v>
       </c>
@@ -6039,7 +6482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>193</v>
       </c>
@@ -6053,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>200</v>
       </c>
@@ -6067,7 +6510,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="12:12">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L39" s="25" t="s">
         <v>166</v>
       </c>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HouseSelection\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="GetRoomQuantityInfo" sheetId="8" r:id="rId7"/>
     <sheet name="GetHouseSelectPeriod" sheetId="10" r:id="rId8"/>
     <sheet name="PhoneCallLogin" sheetId="11" r:id="rId9"/>
-    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId10"/>
-    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId11"/>
-    <sheet name="SaveNotifyRecords" sheetId="14" r:id="rId12"/>
-    <sheet name="MarkPhoneCallStatus" sheetId="15" r:id="rId13"/>
+    <sheet name="RefreshToken" sheetId="16" r:id="rId10"/>
+    <sheet name="GetPhoneCallProjectGroupList" sheetId="12" r:id="rId11"/>
+    <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId12"/>
+    <sheet name="SaveNotifyRecords" sheetId="14" r:id="rId13"/>
+    <sheet name="MarkPhoneCallStatus" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="298">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1887,11 +1888,59 @@
     <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>-Access_Token</t>
+  </si>
+  <si>
+    <t>-Refresh_Token</t>
+  </si>
+  <si>
+    <t>-Expiry</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Token对象</t>
+  </si>
+  <si>
+    <t>授权Token</t>
+  </si>
+  <si>
+    <t>刷新Token</t>
+  </si>
+  <si>
+    <t>过期时间</t>
+  </si>
+  <si>
+    <t>RefreshToken</t>
+  </si>
+  <si>
+    <t>刷新Token接口</t>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/RefreshToken</t>
+  </si>
+  <si>
+    <t>Access_Token</t>
+  </si>
+  <si>
+    <t>Refresh_Token</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2071,7 +2120,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2161,6 +2210,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2182,6 +2234,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2193,6 +2250,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2218,7 +2278,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,95 +3206,95 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>134</v>
       </c>
@@ -3242,7 +3302,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -3250,7 +3310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>139</v>
       </c>
@@ -3258,97 +3318,97 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="34"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3364,7 +3424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3372,13 +3432,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="34"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="35"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3386,7 +3446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>999</v>
       </c>
@@ -3394,7 +3454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>101</v>
       </c>
@@ -3402,7 +3462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>102</v>
       </c>
@@ -3428,63 +3488,247 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -3501,7 +3745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>204</v>
       </c>
@@ -3518,37 +3762,37 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -3565,7 +3809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>206</v>
       </c>
@@ -3578,7 +3822,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>208</v>
       </c>
@@ -3593,7 +3837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>210</v>
       </c>
@@ -3607,7 +3851,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>212</v>
       </c>
@@ -3621,7 +3865,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>215</v>
       </c>
@@ -3635,23 +3879,23 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
@@ -3673,7 +3917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E27"/>
   <sheetViews>
@@ -3681,57 +3925,57 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="27" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -3748,7 +3992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>204</v>
       </c>
@@ -3765,7 +4009,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>221</v>
       </c>
@@ -3782,7 +4026,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>240</v>
       </c>
@@ -3799,23 +4043,23 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -3832,7 +4076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>244</v>
       </c>
@@ -3845,7 +4089,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>226</v>
       </c>
@@ -3860,7 +4104,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>227</v>
       </c>
@@ -3874,7 +4118,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>230</v>
       </c>
@@ -3888,7 +4132,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>247</v>
       </c>
@@ -3902,7 +4146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>248</v>
       </c>
@@ -3916,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>250</v>
       </c>
@@ -3930,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>252</v>
       </c>
@@ -3944,7 +4188,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>232</v>
       </c>
@@ -3958,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>234</v>
       </c>
@@ -3972,7 +4216,7 @@
         <v>43269.508472222224</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>148</v>
       </c>
@@ -3986,7 +4230,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>256</v>
       </c>
@@ -4017,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E16"/>
   <sheetViews>
@@ -4025,58 +4269,58 @@
       <selection activeCell="A4" sqref="A4:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4093,7 +4337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>260</v>
       </c>
@@ -4110,7 +4354,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>263</v>
       </c>
@@ -4127,7 +4371,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>266</v>
       </c>
@@ -4144,7 +4388,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>268</v>
       </c>
@@ -4159,16 +4403,16 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -4185,14 +4429,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4216,63 +4460,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -4289,7 +4533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>266</v>
       </c>
@@ -4306,7 +4550,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>275</v>
       </c>
@@ -4323,7 +4567,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>279</v>
       </c>
@@ -4340,23 +4584,23 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4373,14 +4617,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4412,56 +4656,56 @@
       <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="11"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -4478,7 +4722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -4495,37 +4739,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -4542,7 +4786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -4555,7 +4799,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -4570,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -4584,7 +4828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -4620,58 +4864,58 @@
       <selection activeCell="A3" sqref="A3:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -4688,7 +4932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -4705,37 +4949,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4752,7 +4996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -4765,7 +5009,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -4780,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -4794,7 +5038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -4808,7 +5052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -4822,7 +5066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -4858,58 +5102,58 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4926,7 +5170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -4943,37 +5187,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -4990,7 +5234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -5003,7 +5247,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -5018,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -5032,7 +5276,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -5046,7 +5290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -5082,56 +5326,56 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -5148,7 +5392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -5165,7 +5409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
@@ -5182,30 +5426,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -5222,7 +5466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -5237,32 +5481,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -5293,56 +5537,56 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5359,7 +5603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -5376,7 +5620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -5393,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -5410,23 +5654,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -5443,7 +5687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
@@ -5456,7 +5700,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
@@ -5471,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>97</v>
       </c>
@@ -5485,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>98</v>
       </c>
@@ -5496,7 +5740,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>100</v>
       </c>
@@ -5510,7 +5754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -5524,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -5538,7 +5782,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
@@ -5552,7 +5796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -5566,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>111</v>
       </c>
@@ -5580,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
@@ -5594,7 +5838,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>115</v>
       </c>
@@ -5608,7 +5852,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
@@ -5622,7 +5866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>121</v>
       </c>
@@ -5636,7 +5880,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>123</v>
       </c>
@@ -5650,7 +5894,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
@@ -5664,7 +5908,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>128</v>
       </c>
@@ -5678,7 +5922,7 @@
         <v>1174530</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>194</v>
       </c>
@@ -5692,7 +5936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>132</v>
       </c>
@@ -5705,7 +5949,7 @@
       </c>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>195</v>
       </c>
@@ -5744,55 +5988,55 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="1" max="3" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -5809,7 +6053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -5826,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -5843,30 +6087,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -5883,7 +6127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>158</v>
       </c>
@@ -5898,7 +6142,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>160</v>
       </c>
@@ -5938,56 +6182,56 @@
       <selection activeCell="A10" sqref="A10:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -6004,7 +6248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -6021,37 +6265,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -6068,7 +6312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>143</v>
       </c>
@@ -6081,7 +6325,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>145</v>
       </c>
@@ -6096,7 +6340,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -6110,7 +6354,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>150</v>
       </c>
@@ -6124,7 +6368,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>152</v>
       </c>
@@ -6138,7 +6382,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>155</v>
       </c>
@@ -6152,67 +6396,67 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
@@ -6239,66 +6483,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="A4:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6315,7 +6559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>170</v>
       </c>
@@ -6332,7 +6576,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>173</v>
       </c>
@@ -6349,48 +6593,48 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6402,7 +6646,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>178</v>
       </c>
@@ -6417,100 +6661,193 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="45" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="45" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="45" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E22" t="b">
+      <c r="E22" s="43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L39" s="25" t="s">
         <v>166</v>
       </c>
@@ -6528,6 +6865,7 @@
     <hyperlink ref="B6" r:id="rId1" display="http://xxx.xx.xx/api/GetHouseEstatsDetails"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="297">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetHouseEstateDetails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取某一栋楼内所有房间信息</t>
     <rPh sb="0" eb="1">
       <t>huo qu</t>
@@ -631,10 +627,6 @@
     <rPh sb="11" eb="12">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xxx.xx.xx/api/GetHouseEstatsDetails</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1935,6 +1927,9 @@
   </si>
   <si>
     <t>Expiry</t>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/GetHouseEstateDetails</t>
   </si>
 </sst>
 </file>
@@ -2210,6 +2205,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2234,11 +2234,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2694,14 +2689,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2719,8 +2714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7442200" y="203200"/>
-          <a:ext cx="13195300" cy="2108200"/>
+          <a:off x="7534275" y="0"/>
+          <a:ext cx="13385800" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3215,10 +3210,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3227,95 +3222,95 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3403,10 +3398,10 @@
       <c r="B31" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="38"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3433,10 +3428,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="38"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -3490,7 +3485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3506,43 +3501,43 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -3563,7 +3558,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -3572,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -3591,13 +3586,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -3617,43 +3612,43 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3690,43 +3685,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3747,7 +3742,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -3759,7 +3754,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,13 +3779,13 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -3811,72 +3806,72 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,43 +3932,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -3994,7 +3989,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4006,41 +4001,41 @@
         <v>56</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4051,13 +4046,13 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -4078,83 +4073,83 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E21" s="15" t="b">
         <v>1</v>
@@ -4162,13 +4157,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E22" s="15" t="b">
         <v>1</v>
@@ -4176,27 +4171,27 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
@@ -4204,13 +4199,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="E25" s="30">
         <v>43269.508472222224</v>
@@ -4218,13 +4213,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E26" s="32">
         <v>0.375</v>
@@ -4232,13 +4227,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E27" s="32">
         <v>0.41666666666666669</v>
@@ -4282,43 +4277,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -4339,7 +4334,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -4348,15 +4343,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
@@ -4365,52 +4360,52 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -4478,43 +4473,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -4535,7 +4530,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4544,44 +4539,44 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4592,13 +4587,13 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -4667,43 +4662,43 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -4761,13 +4756,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -4877,43 +4872,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -4971,13 +4966,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -5115,43 +5110,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -5209,13 +5204,13 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -5337,43 +5332,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -5441,13 +5436,13 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -5533,8 +5528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5548,43 +5543,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -5639,7 +5634,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -5662,13 +5657,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -5689,20 +5684,20 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>36</v>
@@ -5717,13 +5712,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5731,24 +5726,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>21</v>
@@ -5756,13 +5751,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5770,35 +5765,35 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>36</v>
@@ -5812,13 +5807,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5826,13 +5821,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>102</v>
@@ -5840,41 +5835,41 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>55.93</v>
@@ -5882,13 +5877,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E28">
         <v>44.38</v>
@@ -5896,13 +5891,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="E29">
         <v>21000</v>
@@ -5910,13 +5905,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E30">
         <v>1174530</v>
@@ -5924,40 +5919,40 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -5998,43 +5993,43 @@
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -6102,13 +6097,13 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -6129,14 +6124,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" s="14">
         <v>330</v>
@@ -6144,14 +6139,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
@@ -6193,43 +6188,43 @@
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -6287,13 +6282,13 @@
       <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -6314,86 +6309,86 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6497,50 +6492,50 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -6561,7 +6556,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>26</v>
@@ -6570,15 +6565,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
@@ -6587,10 +6582,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6608,13 +6603,13 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -6634,185 +6629,185 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>176</v>
+      <c r="A15" s="35" t="s">
+        <v>174</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>179</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>181</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>184</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>186</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>180</v>
+      <c r="E19" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>188</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>190</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>193</v>
+      <c r="A22" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="43"/>
+        <v>189</v>
+      </c>
+      <c r="C22" s="35"/>
       <c r="D22" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="43" t="b">
+        <v>190</v>
+      </c>
+      <c r="E22" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>200</v>
+      <c r="A23" s="37" t="s">
+        <v>198</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="43"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="43"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -6849,7 +6844,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L39" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="299">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1332,16 +1332,6 @@
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否选择</t>
-    <rPh sb="0" eb="1">
-      <t>shi fou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xuan ze</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1670,24 +1660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-IsUndialed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未拨打</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bo da</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-IsNotConnected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未接通</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1698,34 +1670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-NotConnectedReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未接通原因</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jie tong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yuan yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占线</t>
-    <rPh sb="0" eb="1">
-      <t>zhan xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timespan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-EndTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1930,6 +1874,36 @@
   </si>
   <si>
     <t>http://xxx.xx.xx/api/GetHouseEstateDetails</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>是否选择(0-未选;1-已选)</t>
+  </si>
+  <si>
+    <t>获取楼盘总房源数和剩余房源数</t>
+  </si>
+  <si>
+    <t>-ShakingNumberResultId</t>
+  </si>
+  <si>
+    <t>摇号结果ID</t>
+  </si>
+  <si>
+    <t>-IsContacted</t>
+  </si>
+  <si>
+    <t>-IsCallBack</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>-ResultType</t>
+  </si>
+  <si>
+    <t>通知结果(0-未通知;1-有效电话;2-关机;3-不在服务区;4-停机;5-无人接听;6-挂断;7-空号;8-暂时不方便，稍后再打;9-非本人)</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2089,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2182,23 +2156,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2210,6 +2171,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,6 +2197,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3210,10 +3190,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3222,17 +3202,17 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -3241,17 +3221,17 @@
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -3260,17 +3240,17 @@
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -3279,15 +3259,15 @@
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -3398,10 +3378,10 @@
       <c r="B31" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="34"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3428,10 +3408,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -3501,55 +3481,55 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -3558,7 +3538,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -3567,7 +3547,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -3586,25 +3566,25 @@
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -3612,43 +3592,43 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>293</v>
+      <c r="A11" s="32" t="s">
+        <v>285</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="35"/>
+        <v>277</v>
+      </c>
+      <c r="C11" s="30"/>
       <c r="D11" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>295</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="35"/>
+        <v>277</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="35"/>
+        <v>281</v>
+      </c>
+      <c r="E13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3685,43 +3665,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3742,7 +3722,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -3754,7 +3734,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,13 +3759,13 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -3806,27 +3786,27 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>178</v>
@@ -3834,13 +3814,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>152</v>
@@ -3848,30 +3828,30 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3914,17 +3894,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E27"/>
+  <dimension ref="A5:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="102.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3932,64 +3912,64 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4001,41 +3981,41 @@
         <v>56</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>240</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4046,198 +4026,234 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>242</v>
+      <c r="A16" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>224</v>
+      <c r="A17" s="32" t="s">
+        <v>292</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="E19" s="44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="46">
+        <v>43269.508472222224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="47">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="E21" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="30">
-        <v>43269.508472222224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="32">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="B28" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E28" s="47">
         <v>0.41666666666666669</v>
       </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4277,64 +4293,64 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -4343,15 +4359,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
@@ -4360,72 +4376,72 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4473,64 +4489,64 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4539,44 +4555,44 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,33 +4603,33 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4662,43 +4678,43 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -4756,13 +4772,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -4872,43 +4888,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -4966,13 +4982,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -5110,43 +5126,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -5204,13 +5220,13 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -5332,43 +5348,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -5436,13 +5452,13 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -5528,58 +5544,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -5657,28 +5673,28 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5711,250 +5727,268 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="30">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="30">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="30">
         <v>55.93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="30">
         <v>44.38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="30">
         <v>21000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="30">
         <v>1174530</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="43" t="s">
         <v>129</v>
       </c>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" t="b">
+      <c r="B33" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="30">
         <v>1</v>
       </c>
     </row>
@@ -5980,7 +6014,7 @@
   <dimension ref="A6:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5993,43 +6027,43 @@
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -6097,13 +6131,13 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -6188,43 +6222,43 @@
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -6282,13 +6316,13 @@
       <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -6499,43 +6533,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -6603,25 +6637,25 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -6629,7 +6663,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="30" t="s">
         <v>174</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6657,157 +6691,157 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="32" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="32" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="32" t="s">
         <v>184</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="32" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="32" t="s">
         <v>185</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="32" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="32" t="s">
         <v>188</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="32" t="s">
         <v>191</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="35" t="b">
+      <c r="E22" s="30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>198</v>
+      <c r="A23" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="306">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1509,20 +1509,6 @@
   </si>
   <si>
     <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未拨打列表</t>
-    <rPh sb="0" eb="1">
-      <t>wei bo da</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>lie biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-Sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1660,16 +1646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未接通</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jie tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-EndTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1904,6 +1880,36 @@
   </si>
   <si>
     <t>通知结果(0-未通知;1-有效电话;2-关机;3-不在服务区;4-停机;5-无人接听;6-挂断;7-空号;8-暂时不方便，稍后再打;9-非本人)</t>
+  </si>
+  <si>
+    <t>选房顺序号</t>
+  </si>
+  <si>
+    <t>是否通知成功</t>
+  </si>
+  <si>
+    <t>是否回电</t>
+  </si>
+  <si>
+    <t>-IsMessageSend</t>
+  </si>
+  <si>
+    <t>是否发送短信</t>
+  </si>
+  <si>
+    <t>-SelectHouseSequence</t>
+  </si>
+  <si>
+    <t>-ShakingNumberSequance</t>
+  </si>
+  <si>
+    <t>摇号顺序号</t>
+  </si>
+  <si>
+    <t>认购人列表</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -2174,6 +2180,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2197,22 +2219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3190,10 +3196,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3202,17 +3208,17 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -3221,17 +3227,17 @@
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -3240,17 +3246,17 @@
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -3259,15 +3265,15 @@
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -3378,10 +3384,10 @@
       <c r="B31" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="40"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3408,10 +3414,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="40"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -3481,43 +3487,43 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -3538,7 +3544,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -3547,7 +3553,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -3566,13 +3572,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -3593,40 +3599,40 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" s="30"/>
     </row>
@@ -3665,43 +3671,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3759,13 +3765,13 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -3894,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E29"/>
+  <dimension ref="A5:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3912,43 +3918,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -4003,19 +4009,19 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4026,13 +4032,13 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -4053,207 +4059,224 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="23"/>
+        <v>290</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>234</v>
+        <v>223</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>243</v>
+        <v>226</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="45" t="b">
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="45" t="b">
+        <v>297</v>
+      </c>
+      <c r="E23" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="45" t="b">
+        <v>298</v>
+      </c>
+      <c r="E24" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="45">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E25" s="37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="46">
-        <v>43269.508472222224</v>
+        <v>228</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="47">
-        <v>0.375</v>
+        <v>231</v>
+      </c>
+      <c r="E27" s="38">
+        <v>43269.508472222224</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="47">
-        <v>0.41666666666666669</v>
+        <v>147</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0.375</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E29" s="45"/>
+      <c r="D29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4293,43 +4316,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -4350,7 +4373,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -4359,15 +4382,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
@@ -4376,15 +4399,15 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>219</v>
@@ -4393,7 +4416,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>220</v>
@@ -4401,27 +4424,27 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -4489,43 +4512,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -4546,7 +4569,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4555,44 +4578,44 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,13 +4626,13 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -4678,43 +4701,43 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -4772,13 +4795,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -4888,43 +4911,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -4982,13 +5005,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -5126,43 +5149,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -5220,13 +5243,13 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -5348,43 +5371,43 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -5452,13 +5475,13 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -5559,43 +5582,43 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -5673,13 +5696,13 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -5950,43 +5973,43 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="35" t="s">
         <v>129</v>
       </c>
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>193</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E33" s="30">
         <v>1</v>
@@ -6027,43 +6050,43 @@
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -6131,13 +6154,13 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -6222,43 +6245,43 @@
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -6316,13 +6339,13 @@
       <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -6533,43 +6556,43 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -6637,13 +6660,13 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -6793,53 +6816,53 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E27" s="30"/>
     </row>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="307">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1910,6 +1910,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>区域id(为0是获取所有)</t>
   </si>
 </sst>
 </file>
@@ -3902,7 +3905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4687,7 +4690,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4894,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4903,7 +4906,7 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4977,7 +4980,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="E8" s="14">
         <v>4</v>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="310">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,14 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-HouseDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间信息</t>
     <rPh sb="0" eb="1">
       <t>fang jian</t>
@@ -684,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--HouseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间号</t>
     <rPh sb="0" eb="1">
       <t>fang jian</t>
@@ -698,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--SerialNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
       <t>xu hao</t>
@@ -709,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组别</t>
     <rPh sb="0" eb="1">
       <t>zu bie</t>
@@ -724,10 +704,6 @@
     <rPh sb="0" eb="1">
       <t>chang ping qu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -748,14 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--Building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单元号</t>
     <rPh sb="0" eb="1">
       <t>dan yuan</t>
@@ -766,10 +734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--RoomNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房号</t>
     <rPh sb="0" eb="1">
       <t>fang hao</t>
@@ -777,10 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--Toward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朝向</t>
     <rPh sb="0" eb="1">
       <t>chao xiang</t>
@@ -792,10 +752,6 @@
     <rPh sb="0" eb="1">
       <t>nan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--RoomType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -816,10 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--EstimateBuiltUpArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预测建筑面积</t>
     <rPh sb="0" eb="1">
       <t>yu ce</t>
@@ -833,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--EstimateLivingArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预测套内面积</t>
     <rPh sb="0" eb="1">
       <t>yu ce</t>
@@ -850,10 +798,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--AreaUnitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal（10，2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1324,10 +1268,6 @@
   </si>
   <si>
     <t>--SubscriberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--IsSelected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1858,9 +1798,6 @@
     <t>是否选择(0-未选;1-已选)</t>
   </si>
   <si>
-    <t>获取楼盘总房源数和剩余房源数</t>
-  </si>
-  <si>
     <t>-ShakingNumberResultId</t>
   </si>
   <si>
@@ -1913,6 +1850,63 @@
   </si>
   <si>
     <t>区域id(为0是获取所有)</t>
+  </si>
+  <si>
+    <t>-Houses</t>
+  </si>
+  <si>
+    <t>--Unit</t>
+  </si>
+  <si>
+    <t>--HouseDetail</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>---HouseID</t>
+  </si>
+  <si>
+    <t>---SerialNumber</t>
+  </si>
+  <si>
+    <t>---Group</t>
+  </si>
+  <si>
+    <t>---Block</t>
+  </si>
+  <si>
+    <t>---Building</t>
+  </si>
+  <si>
+    <t>---Unit</t>
+  </si>
+  <si>
+    <t>---RoomNumber</t>
+  </si>
+  <si>
+    <t>---Toward</t>
+  </si>
+  <si>
+    <t>---RoomType</t>
+  </si>
+  <si>
+    <t>---EstimateBuiltUpArea</t>
+  </si>
+  <si>
+    <t>---EstimateLivingArea</t>
+  </si>
+  <si>
+    <t>---AreaUnitPrice</t>
+  </si>
+  <si>
+    <t>---IsSelected</t>
+  </si>
+  <si>
+    <t>DialedInfo</t>
+  </si>
+  <si>
+    <t>获取楼盘总房源数和已认购房源数</t>
   </si>
 </sst>
 </file>
@@ -2678,19 +2672,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246731</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2703,46 +2697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7534275" y="0"/>
-          <a:ext cx="13385800" cy="2076450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7442200" y="2159000"/>
-          <a:ext cx="14020800" cy="4457700"/>
+          <a:off x="8534400" y="0"/>
+          <a:ext cx="7352381" cy="7257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3280,26 +3236,26 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3491,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -3502,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -3513,7 +3469,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -3547,7 +3503,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -3556,7 +3512,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -3602,40 +3558,40 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E13" s="30"/>
     </row>
@@ -3675,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -3686,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -3697,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -3731,7 +3687,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -3743,7 +3699,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3795,72 +3751,72 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3906,7 +3862,7 @@
   <dimension ref="A5:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A16" sqref="A16:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3922,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -3933,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -3944,7 +3900,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -3978,7 +3934,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -3990,41 +3946,41 @@
         <v>56</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4062,117 +4018,117 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="5" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="5" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E23" s="37" t="b">
         <v>1</v>
@@ -4180,14 +4136,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="5" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E24" s="37" t="b">
         <v>1</v>
@@ -4195,14 +4151,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="5" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E25" s="37" t="b">
         <v>1</v>
@@ -4210,14 +4166,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E26" s="37">
         <v>0</v>
@@ -4225,14 +4181,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="5" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E27" s="38">
         <v>43269.508472222224</v>
@@ -4240,14 +4196,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E28" s="39">
         <v>0.375</v>
@@ -4255,14 +4211,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E29" s="39">
         <v>0.41666666666666669</v>
@@ -4270,14 +4226,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E30" s="37"/>
     </row>
@@ -4300,19 +4256,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E16"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E16"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -4331,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -4342,7 +4297,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -4376,7 +4331,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -4385,15 +4340,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
@@ -4402,42 +4357,42 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,18 +4422,225 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="38">
+        <v>43269.508472222224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4516,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -4527,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -4538,7 +4700,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -4572,7 +4734,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -4581,44 +4743,44 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4897,7 +5059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4980,7 +5142,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E8" s="14">
         <v>4</v>
@@ -5568,10 +5730,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E33"/>
+  <dimension ref="A3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5586,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -5608,7 +5770,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -5753,118 +5915,114 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="30">
-        <v>21</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E19" s="30">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E23" s="30">
         <v>1</v>
@@ -5872,149 +6030,164 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E24" s="30">
-        <v>102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="E25" s="30">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="30">
-        <v>55.93</v>
+        <v>106</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E28" s="30">
-        <v>44.38</v>
+        <v>55.93</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E29" s="30">
-        <v>21000</v>
+        <v>44.38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E30" s="30">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="30">
         <v>1174530</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B32" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="30">
+      <c r="C33" s="34"/>
+      <c r="D33" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" s="30">
         <v>1</v>
       </c>
     </row>
@@ -6039,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6054,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -6065,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -6076,7 +6249,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -6184,14 +6357,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E17" s="14">
         <v>330</v>
@@ -6199,14 +6372,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
@@ -6249,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -6260,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -6271,7 +6444,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -6369,86 +6542,86 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6552,7 +6725,7 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="25" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6560,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -6571,7 +6744,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -6582,7 +6755,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -6616,7 +6789,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>26</v>
@@ -6625,15 +6798,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
@@ -6642,10 +6815,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6690,63 +6863,63 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="5" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
@@ -6756,27 +6929,27 @@
         <v>56</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="5" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
@@ -6789,14 +6962,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E22" s="30" t="b">
         <v>1</v>
@@ -6804,68 +6977,68 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="5" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E27" s="30"/>
     </row>
@@ -6904,7 +7077,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L39" s="25" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HouseSelection\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -1913,7 +1913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3146,7 +3146,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
@@ -3154,13 +3154,13 @@
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="40"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
         <v>118</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>119</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="19" t="s">
         <v>123</v>
       </c>
@@ -3258,97 +3258,97 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="40"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3372,13 +3372,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="40"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
@@ -3434,7 +3434,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.875" bestFit="1" customWidth="1"/>
@@ -3442,7 +3442,7 @@
     <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>264</v>
       </c>
@@ -3516,21 +3516,21 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="45" t="s">
         <v>27</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
         <v>267</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
         <v>268</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
         <v>269</v>
       </c>
@@ -3603,6 +3603,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A9:E9"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -3618,7 +3619,7 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
@@ -3626,7 +3627,7 @@
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -3637,7 +3638,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -3648,7 +3649,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -3659,7 +3660,7 @@
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3669,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>186</v>
       </c>
@@ -3702,28 +3703,28 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
@@ -3732,7 +3733,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="47"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
         <v>188</v>
       </c>
@@ -3762,7 +3763,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>190</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
         <v>192</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>194</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>197</v>
       </c>
@@ -3819,23 +3820,23 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
@@ -3865,7 +3866,7 @@
       <selection activeCell="A16" sqref="A16:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -3873,7 +3874,7 @@
     <col min="5" max="5" width="27" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -3884,7 +3885,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -3895,7 +3896,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3906,7 +3907,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
@@ -3915,7 +3916,7 @@
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>186</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>203</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>220</v>
       </c>
@@ -3983,14 +3984,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="44" t="s">
         <v>27</v>
       </c>
@@ -3999,7 +4000,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="32" t="s">
         <v>224</v>
       </c>
@@ -4029,7 +4030,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="32" t="s">
         <v>273</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>286</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
         <v>285</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="31" t="s">
         <v>207</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="32" t="s">
         <v>210</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="32" t="s">
         <v>227</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
         <v>275</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
         <v>276</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="32" t="s">
         <v>283</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
         <v>212</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
         <v>214</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>43269.508472222224</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="32" t="s">
         <v>132</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="32" t="s">
         <v>228</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="32" t="s">
         <v>278</v>
       </c>
@@ -4262,7 +4263,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.875" bestFit="1" customWidth="1"/>
@@ -4270,7 +4271,7 @@
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4281,7 +4282,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -4292,7 +4293,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -4303,7 +4304,7 @@
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
@@ -4312,7 +4313,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>232</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>235</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>238</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>240</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
@@ -4404,7 +4405,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="47"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="32" t="s">
         <v>308</v>
       </c>
@@ -4434,7 +4435,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="32" t="s">
         <v>273</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>286</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>285</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="31" t="s">
         <v>41</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="32" t="s">
         <v>210</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="32" t="s">
         <v>227</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="32" t="s">
         <v>275</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
         <v>276</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
         <v>283</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="32" t="s">
         <v>212</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
         <v>214</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>43269.508472222224</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
         <v>132</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="32" t="s">
         <v>134</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="32" t="s">
         <v>278</v>
       </c>
@@ -4663,17 +4664,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -4684,7 +4685,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -4695,7 +4696,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4706,7 +4707,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
@@ -4715,7 +4716,7 @@
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>238</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>247</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>251</v>
       </c>
@@ -4783,14 +4784,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="45" t="s">
         <v>27</v>
       </c>
@@ -4799,7 +4800,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="47"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4816,14 +4817,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="27"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4855,14 +4856,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.875" style="11"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4873,7 +4874,7 @@
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -4884,7 +4885,7 @@
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -4895,7 +4896,7 @@
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="44" t="s">
         <v>20</v>
       </c>
@@ -4904,7 +4905,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -4938,28 +4939,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="45" t="s">
         <v>27</v>
       </c>
@@ -4968,7 +4969,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="47"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -4998,7 +4999,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -5063,7 +5064,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -5072,7 +5073,7 @@
     <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -5083,7 +5084,7 @@
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -5094,7 +5095,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -5105,7 +5106,7 @@
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
@@ -5114,7 +5115,7 @@
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -5148,28 +5149,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="45" t="s">
         <v>27</v>
       </c>
@@ -5178,7 +5179,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -5208,7 +5209,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -5301,7 +5302,7 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -5310,7 +5311,7 @@
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5322,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -5332,7 +5333,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -5343,7 +5344,7 @@
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
@@ -5352,7 +5353,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -5386,28 +5387,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
@@ -5416,7 +5417,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="47"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -5446,7 +5447,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -5525,14 +5526,14 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -5543,7 +5544,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -5554,7 +5555,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5565,7 +5566,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
@@ -5574,7 +5575,7 @@
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
@@ -5625,21 +5626,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="45" t="s">
         <v>27</v>
       </c>
@@ -5648,7 +5649,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="47"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -5680,32 +5681,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -5736,14 +5737,14 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -5754,7 +5755,7 @@
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -5765,7 +5766,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -5776,7 +5777,7 @@
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
@@ -5785,7 +5786,7 @@
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>89</v>
       </c>
@@ -5853,14 +5854,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="44" t="s">
         <v>27</v>
       </c>
@@ -5869,7 +5870,7 @@
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>90</v>
       </c>
@@ -5899,7 +5900,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>92</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>291</v>
       </c>
@@ -5925,7 +5926,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="31" t="s">
         <v>292</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
         <v>293</v>
       </c>
@@ -5953,7 +5954,7 @@
       </c>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
         <v>295</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="32" t="s">
         <v>296</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="32" t="s">
         <v>297</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="32" t="s">
         <v>298</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
         <v>299</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
         <v>300</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="32" t="s">
         <v>301</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
         <v>302</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
         <v>303</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="32" t="s">
         <v>304</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="32" t="s">
         <v>305</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="32" t="s">
         <v>306</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="32" t="s">
         <v>112</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>1174530</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="34" t="s">
         <v>178</v>
       </c>
@@ -6163,7 +6164,7 @@
       </c>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="34" t="s">
         <v>116</v>
       </c>
@@ -6176,7 +6177,7 @@
       </c>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
         <v>307</v>
       </c>
@@ -6212,17 +6213,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -6233,7 +6234,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -6244,7 +6245,7 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -6255,7 +6256,7 @@
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="44" t="s">
         <v>20</v>
       </c>
@@ -6264,7 +6265,7 @@
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -6315,21 +6316,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
         <v>27</v>
       </c>
@@ -6338,7 +6339,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="47"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>142</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>144</v>
       </c>
@@ -6410,14 +6411,14 @@
       <selection activeCell="A10" sqref="A10:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
@@ -6428,7 +6429,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -6439,7 +6440,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -6450,7 +6451,7 @@
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="44" t="s">
         <v>20</v>
       </c>
@@ -6459,7 +6460,7 @@
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -6493,28 +6494,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
         <v>27</v>
       </c>
@@ -6523,7 +6524,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="47"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
         <v>127</v>
       </c>
@@ -6553,7 +6554,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
         <v>129</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="18" t="s">
         <v>132</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>134</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>136</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="11" t="s">
         <v>139</v>
       </c>
@@ -6624,67 +6625,67 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
@@ -6712,10 +6713,10 @@
   <dimension ref="A3:L39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="A4:E27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
@@ -6723,12 +6724,12 @@
     <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -6739,7 +6740,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -6750,7 +6751,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -6761,7 +6762,7 @@
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
@@ -6770,7 +6771,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
         <v>154</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
         <v>157</v>
       </c>
@@ -6821,21 +6822,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="45" t="s">
         <v>27</v>
       </c>
@@ -6844,7 +6845,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="47"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>160</v>
       </c>
@@ -6874,7 +6875,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="31" t="s">
         <v>165</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
         <v>167</v>
       </c>
@@ -6917,7 +6918,7 @@
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
         <v>170</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="32" t="s">
         <v>171</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="32" t="s">
         <v>174</v>
       </c>
@@ -6960,7 +6961,7 @@
       </c>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="32" t="s">
         <v>177</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
         <v>182</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>254</v>
       </c>
@@ -7003,7 +7004,7 @@
       </c>
       <c r="E24" s="30"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="32" t="s">
         <v>255</v>
       </c>
@@ -7016,7 +7017,7 @@
       </c>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
         <v>256</v>
       </c>
@@ -7029,7 +7030,7 @@
       </c>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
         <v>257</v>
       </c>
@@ -7042,40 +7043,40 @@
       </c>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="11"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="L39" s="25" t="s">
         <v>150</v>
       </c>

--- a/Doc/前端接口说明文档.xlsx
+++ b/Doc/前端接口说明文档.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanmengbiao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="GetSubscriberDialingStatus" sheetId="13" r:id="rId12"/>
     <sheet name="SaveNotifyRecords" sheetId="14" r:id="rId13"/>
     <sheet name="MarkPhoneCallStatus" sheetId="15" r:id="rId14"/>
+    <sheet name="Upload" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="317">
   <si>
     <t>接口列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1908,12 +1909,49 @@
   <si>
     <t>获取楼盘总房源数和已认购房源数</t>
   </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <rPh sb="0" eb="1">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xx.xx/api/Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <rPh sb="0" eb="1">
+      <t>wen jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2092,7 +2130,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2196,6 +2234,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2256,7 +2297,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3B5618-0B8A-42AC-AB0B-22781FEA1B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,6 +2525,49 @@
         <a:xfrm>
           <a:off x="6553200" y="698500"/>
           <a:ext cx="12928600" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6146800" y="368300"/>
+          <a:ext cx="13144500" cy="6057900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3146,95 +3230,95 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>118</v>
       </c>
@@ -3242,7 +3326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>119</v>
       </c>
@@ -3250,7 +3334,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>123</v>
       </c>
@@ -3258,97 +3342,97 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="40"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="41"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3364,7 +3448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3372,13 +3456,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="40"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3386,7 +3470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>999</v>
       </c>
@@ -3394,7 +3478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>101</v>
       </c>
@@ -3402,7 +3486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>102</v>
       </c>
@@ -3434,57 +3518,57 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="44" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -3501,7 +3585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>264</v>
       </c>
@@ -3516,30 +3600,30 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -3556,7 +3640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>267</v>
       </c>
@@ -3569,7 +3653,7 @@
       </c>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>268</v>
       </c>
@@ -3582,7 +3666,7 @@
       </c>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>269</v>
       </c>
@@ -3619,57 +3703,57 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="44" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +3770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>186</v>
       </c>
@@ -3703,37 +3787,37 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -3750,7 +3834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>188</v>
       </c>
@@ -3763,7 +3847,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>190</v>
       </c>
@@ -3778,7 +3862,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>192</v>
       </c>
@@ -3792,7 +3876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>194</v>
       </c>
@@ -3806,7 +3890,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>197</v>
       </c>
@@ -3820,23 +3904,23 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
@@ -3866,57 +3950,57 @@
       <selection activeCell="A16" sqref="A16:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="102.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="44" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +4017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>186</v>
       </c>
@@ -3950,7 +4034,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>203</v>
       </c>
@@ -3967,7 +4051,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>220</v>
       </c>
@@ -3984,23 +4068,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4017,7 +4101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>224</v>
       </c>
@@ -4030,7 +4114,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>273</v>
       </c>
@@ -4045,7 +4129,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>286</v>
       </c>
@@ -4060,7 +4144,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>285</v>
       </c>
@@ -4075,7 +4159,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>207</v>
       </c>
@@ -4090,7 +4174,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>210</v>
       </c>
@@ -4105,7 +4189,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>227</v>
       </c>
@@ -4120,7 +4204,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>275</v>
       </c>
@@ -4135,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>276</v>
       </c>
@@ -4150,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>283</v>
       </c>
@@ -4165,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>212</v>
       </c>
@@ -4180,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>214</v>
       </c>
@@ -4195,7 +4279,7 @@
         <v>43269.508472222224</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>132</v>
       </c>
@@ -4210,7 +4294,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>228</v>
       </c>
@@ -4225,7 +4309,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>278</v>
       </c>
@@ -4263,57 +4347,57 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="44" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -4330,7 +4414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>232</v>
       </c>
@@ -4347,7 +4431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>235</v>
       </c>
@@ -4364,7 +4448,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>238</v>
       </c>
@@ -4381,7 +4465,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>240</v>
       </c>
@@ -4396,16 +4480,16 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -4422,7 +4506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>308</v>
       </c>
@@ -4435,7 +4519,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>273</v>
       </c>
@@ -4450,7 +4534,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>286</v>
       </c>
@@ -4465,7 +4549,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>285</v>
       </c>
@@ -4480,7 +4564,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>41</v>
       </c>
@@ -4495,7 +4579,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>210</v>
       </c>
@@ -4510,7 +4594,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>227</v>
       </c>
@@ -4525,7 +4609,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>275</v>
       </c>
@@ -4540,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>276</v>
       </c>
@@ -4555,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>283</v>
       </c>
@@ -4570,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>212</v>
       </c>
@@ -4585,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>214</v>
       </c>
@@ -4600,7 +4684,7 @@
         <v>43269.508472222224</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>132</v>
       </c>
@@ -4615,7 +4699,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>134</v>
       </c>
@@ -4630,7 +4714,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>278</v>
       </c>
@@ -4664,59 +4748,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="44" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -4733,7 +4817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>238</v>
       </c>
@@ -4750,7 +4834,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>247</v>
       </c>
@@ -4767,7 +4851,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>251</v>
       </c>
@@ -4784,23 +4868,23 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -4817,14 +4901,189 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4856,56 +5115,56 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="11"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="11" style="11"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="44" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -4922,7 +5181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -4939,37 +5198,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -4986,7 +5245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -4999,7 +5258,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -5014,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -5028,7 +5287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -5064,58 +5323,58 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="44" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -5149,37 +5408,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -5196,7 +5455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -5209,7 +5468,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -5224,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -5238,7 +5497,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -5252,7 +5511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -5266,7 +5525,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -5302,58 +5561,58 @@
       <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="44" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -5370,7 +5629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -5387,37 +5646,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -5434,7 +5693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -5447,7 +5706,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -5462,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -5476,7 +5735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -5490,7 +5749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -5526,56 +5785,56 @@
       <selection activeCell="A5" sqref="A5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="44" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -5592,7 +5851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -5609,7 +5868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
@@ -5626,30 +5885,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -5666,7 +5925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -5681,32 +5940,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -5737,56 +5996,56 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="44" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5803,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -5820,7 +6079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -5837,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>89</v>
       </c>
@@ -5854,23 +6113,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -5887,7 +6146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>90</v>
       </c>
@@ -5900,7 +6159,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>92</v>
       </c>
@@ -5915,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>291</v>
       </c>
@@ -5926,7 +6185,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>292</v>
       </c>
@@ -5941,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>293</v>
       </c>
@@ -5954,7 +6213,7 @@
       </c>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>295</v>
       </c>
@@ -5969,7 +6228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>296</v>
       </c>
@@ -5984,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>297</v>
       </c>
@@ -5999,7 +6258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>298</v>
       </c>
@@ -6014,7 +6273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>299</v>
       </c>
@@ -6029,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>300</v>
       </c>
@@ -6044,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>301</v>
       </c>
@@ -6059,7 +6318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>302</v>
       </c>
@@ -6074,7 +6333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>303</v>
       </c>
@@ -6089,7 +6348,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>304</v>
       </c>
@@ -6104,7 +6363,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>305</v>
       </c>
@@ -6119,7 +6378,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>306</v>
       </c>
@@ -6134,7 +6393,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>112</v>
       </c>
@@ -6149,7 +6408,7 @@
         <v>1174530</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>178</v>
       </c>
@@ -6164,7 +6423,7 @@
       </c>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>116</v>
       </c>
@@ -6177,7 +6436,7 @@
       </c>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>307</v>
       </c>
@@ -6217,55 +6476,55 @@
       <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="1" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="44" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -6282,7 +6541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -6299,7 +6558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -6316,30 +6575,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -6356,7 +6615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>142</v>
       </c>
@@ -6371,7 +6630,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>144</v>
       </c>
@@ -6411,56 +6670,56 @@
       <selection activeCell="A10" sqref="A10:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="44" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -6477,7 +6736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -6494,37 +6753,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -6541,7 +6800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>127</v>
       </c>
@@ -6554,7 +6813,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>129</v>
       </c>
@@ -6569,7 +6828,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>132</v>
       </c>
@@ -6583,7 +6842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>134</v>
       </c>
@@ -6597,7 +6856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>136</v>
       </c>
@@ -6611,7 +6870,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>139</v>
       </c>
@@ -6625,67 +6884,67 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="D39" s="12"/>
@@ -6716,62 +6975,62 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L3" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="44" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -6788,7 +7047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>154</v>
       </c>
@@ -6805,7 +7064,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>157</v>
       </c>
@@ -6822,30 +7081,30 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -6862,7 +7121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>160</v>
       </c>
@@ -6875,7 +7134,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
@@ -6890,7 +7149,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>165</v>
       </c>
@@ -6905,7 +7164,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>167</v>
       </c>
@@ -6918,7 +7177,7 @@
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>170</v>
       </c>
@@ -6933,7 +7192,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>171</v>
       </c>
@@ -6948,7 +7207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>174</v>
       </c>
@@ -6961,7 +7220,7 @@
       </c>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>177</v>
       </c>
@@ -6976,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>182</v>
       </c>
@@ -6991,7 +7250,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>254</v>
       </c>
@@ -7004,7 +7263,7 @@
       </c>
       <c r="E24" s="30"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>255</v>
       </c>
@@ -7017,7 +7276,7 @@
       </c>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>256</v>
       </c>
@@ -7030,7 +7289,7 @@
       </c>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>257</v>
       </c>
@@ -7043,40 +7302,40 @@
       </c>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L39" s="25" t="s">
         <v>150</v>
       </c>
